--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H2">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I2">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J2">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N2">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O2">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P2">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q2">
-        <v>28.06024524005811</v>
+        <v>8.792182811250109</v>
       </c>
       <c r="R2">
-        <v>252.542207160523</v>
+        <v>79.12964530125099</v>
       </c>
       <c r="S2">
-        <v>0.06307949488573454</v>
+        <v>0.01845921714883618</v>
       </c>
       <c r="T2">
-        <v>0.06307949488573454</v>
+        <v>0.01845921714883618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H3">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I3">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J3">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>30.255923</v>
       </c>
       <c r="N3">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O3">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P3">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q3">
-        <v>23.97074917682567</v>
+        <v>7.804343887619666</v>
       </c>
       <c r="R3">
-        <v>215.736742591431</v>
+        <v>70.23909498857699</v>
       </c>
       <c r="S3">
-        <v>0.05388629846856137</v>
+        <v>0.01638524603258112</v>
       </c>
       <c r="T3">
-        <v>0.05388629846856138</v>
+        <v>0.01638524603258112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H4">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I4">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J4">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N4">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O4">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P4">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q4">
-        <v>2.898832794229334</v>
+        <v>2.258131793203222</v>
       </c>
       <c r="R4">
-        <v>26.089495148064</v>
+        <v>20.323186138829</v>
       </c>
       <c r="S4">
-        <v>0.00651658269034466</v>
+        <v>0.004740955234471792</v>
       </c>
       <c r="T4">
-        <v>0.006516582690344661</v>
+        <v>0.004740955234471791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7922663333333334</v>
+        <v>0.2579443333333333</v>
       </c>
       <c r="H5">
-        <v>2.376799</v>
+        <v>0.773833</v>
       </c>
       <c r="I5">
-        <v>0.1759587713796512</v>
+        <v>0.05467096027587241</v>
       </c>
       <c r="J5">
-        <v>0.1759587713796512</v>
+        <v>0.0546709602758724</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N5">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O5">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P5">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q5">
-        <v>23.3435686998129</v>
+        <v>7.185290728762111</v>
       </c>
       <c r="R5">
-        <v>210.092118298316</v>
+        <v>64.66761655885901</v>
       </c>
       <c r="S5">
-        <v>0.05247639533501065</v>
+        <v>0.0150855418599833</v>
       </c>
       <c r="T5">
-        <v>0.05247639533501066</v>
+        <v>0.0150855418599833</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J6">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N6">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O6">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P6">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q6">
-        <v>73.59200269045722</v>
+        <v>70.82410234897388</v>
       </c>
       <c r="R6">
-        <v>662.328024214115</v>
+        <v>637.416921140765</v>
       </c>
       <c r="S6">
-        <v>0.1654349888117387</v>
+        <v>0.1486954391983601</v>
       </c>
       <c r="T6">
-        <v>0.1654349888117388</v>
+        <v>0.1486954391983601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J7">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>30.255923</v>
       </c>
       <c r="N7">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O7">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P7">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q7">
         <v>62.86671491362834</v>
       </c>
       <c r="R7">
-        <v>565.800434222655</v>
+        <v>565.8004342226551</v>
       </c>
       <c r="S7">
-        <v>0.1413245175853259</v>
+        <v>0.1319888777266726</v>
       </c>
       <c r="T7">
-        <v>0.1413245175853259</v>
+        <v>0.1319888777266726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J8">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N8">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O8">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P8">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q8">
-        <v>7.602603219146668</v>
+        <v>18.19004002449278</v>
       </c>
       <c r="R8">
-        <v>68.42342897232001</v>
+        <v>163.710360220435</v>
       </c>
       <c r="S8">
-        <v>0.01709066926456549</v>
+        <v>0.03819004972559163</v>
       </c>
       <c r="T8">
-        <v>0.01709066926456549</v>
+        <v>0.03819004972559162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.4614770208171574</v>
+        <v>0.4403936734732808</v>
       </c>
       <c r="J9">
-        <v>0.4614770208171575</v>
+        <v>0.4403936734732807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N9">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O9">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P9">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q9">
-        <v>61.22184449439779</v>
+        <v>57.8800255756539</v>
       </c>
       <c r="R9">
-        <v>550.9966004495801</v>
+        <v>520.920230180885</v>
       </c>
       <c r="S9">
-        <v>0.1376268451555273</v>
+        <v>0.1215193068226564</v>
       </c>
       <c r="T9">
-        <v>0.1376268451555274</v>
+        <v>0.1215193068226563</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H10">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J10">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N10">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O10">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P10">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q10">
-        <v>27.7813309129331</v>
+        <v>75.57656419882431</v>
       </c>
       <c r="R10">
-        <v>250.0319782163979</v>
+        <v>680.1890777894189</v>
       </c>
       <c r="S10">
-        <v>0.06245249484632207</v>
+        <v>0.1586732487095201</v>
       </c>
       <c r="T10">
-        <v>0.06245249484632208</v>
+        <v>0.1586732487095201</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H11">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J11">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>30.255923</v>
       </c>
       <c r="N11">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O11">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P11">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q11">
-        <v>23.73248378320066</v>
+        <v>67.085217575057</v>
       </c>
       <c r="R11">
-        <v>213.5923540488059</v>
+        <v>603.766958175513</v>
       </c>
       <c r="S11">
-        <v>0.05335067732376966</v>
+        <v>0.1408456381400953</v>
       </c>
       <c r="T11">
-        <v>0.05335067732376967</v>
+        <v>0.1408456381400953</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H12">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J12">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N12">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O12">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P12">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q12">
-        <v>2.870018862229333</v>
+        <v>19.41063398045566</v>
       </c>
       <c r="R12">
-        <v>25.830169760064</v>
+        <v>174.695705824101</v>
       </c>
       <c r="S12">
-        <v>0.006451808905914678</v>
+        <v>0.04075269080885548</v>
       </c>
       <c r="T12">
-        <v>0.00645180890591468</v>
+        <v>0.04075269080885548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7843913333333332</v>
+        <v>2.217259</v>
       </c>
       <c r="H13">
-        <v>2.353174</v>
+        <v>6.651777</v>
       </c>
       <c r="I13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="J13">
-        <v>0.1742097694767371</v>
+        <v>0.4699451123575263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N13">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O13">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P13">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q13">
-        <v>23.11153737931289</v>
+        <v>61.76390979435234</v>
       </c>
       <c r="R13">
-        <v>208.003836413816</v>
+        <v>555.8751881491711</v>
       </c>
       <c r="S13">
-        <v>0.0519547884007307</v>
+        <v>0.1296735346990554</v>
       </c>
       <c r="T13">
-        <v>0.05195478840073071</v>
+        <v>0.1296735346990554</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H14">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J14">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N14">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O14">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P14">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q14">
-        <v>30.03698929046354</v>
+        <v>5.62713197810611</v>
       </c>
       <c r="R14">
-        <v>270.3329036141719</v>
+        <v>50.644187802955</v>
       </c>
       <c r="S14">
-        <v>0.06752321999045845</v>
+        <v>0.01181418236391877</v>
       </c>
       <c r="T14">
-        <v>0.06752321999045847</v>
+        <v>0.01181418236391877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H15">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J15">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>30.255923</v>
       </c>
       <c r="N15">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O15">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P15">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q15">
-        <v>25.65940283660932</v>
+        <v>4.994899901531666</v>
       </c>
       <c r="R15">
-        <v>230.934625529484</v>
+        <v>44.954099113785</v>
       </c>
       <c r="S15">
-        <v>0.0576823957223386</v>
+        <v>0.01048680900960064</v>
       </c>
       <c r="T15">
-        <v>0.05768239572233862</v>
+        <v>0.01048680900960063</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H16">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J16">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N16">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O16">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P16">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q16">
-        <v>3.103045210410666</v>
+        <v>1.445239014827222</v>
       </c>
       <c r="R16">
-        <v>27.927406893696</v>
+        <v>13.007151133445</v>
       </c>
       <c r="S16">
-        <v>0.006975652664677043</v>
+        <v>0.003034284133916067</v>
       </c>
       <c r="T16">
-        <v>0.006975652664677046</v>
+        <v>0.003034284133916067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8480786666666665</v>
+        <v>0.1650883333333333</v>
       </c>
       <c r="H17">
-        <v>2.544236</v>
+        <v>0.495265</v>
       </c>
       <c r="I17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="J17">
-        <v>0.1883544383264543</v>
+        <v>0.03499025389332058</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N17">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O17">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P17">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q17">
-        <v>24.98803973518044</v>
+        <v>4.598696376066112</v>
       </c>
       <c r="R17">
-        <v>224.892357616624</v>
+        <v>41.388267384595</v>
       </c>
       <c r="S17">
-        <v>0.05617316994898017</v>
+        <v>0.009654978385885108</v>
       </c>
       <c r="T17">
-        <v>0.05617316994898019</v>
+        <v>0.009654978385885107</v>
       </c>
     </row>
   </sheetData>
